--- a/data/option/AAPL_2021-06-28_call_revised.xlsx
+++ b/data/option/AAPL_2021-06-28_call_revised.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:F1"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,25 +436,20 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>index</t>
+          <t>strike</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>strike</t>
+          <t>Maturity</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Maturity</t>
+          <t>lastPrice</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>lastPrice</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>volume</t>
         </is>
